--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H2">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N2">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q2">
-        <v>23.82050276167703</v>
+        <v>426.854090384987</v>
       </c>
       <c r="R2">
-        <v>23.82050276167703</v>
+        <v>3841.686813464884</v>
       </c>
       <c r="S2">
-        <v>0.0010968669182952</v>
+        <v>0.0156848966425546</v>
       </c>
       <c r="T2">
-        <v>0.0010968669182952</v>
+        <v>0.0156848966425546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H3">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q3">
-        <v>7.977554877890396</v>
+        <v>108.6966766513366</v>
       </c>
       <c r="R3">
-        <v>7.977554877890396</v>
+        <v>978.2700898620297</v>
       </c>
       <c r="S3">
-        <v>0.0003673438853070804</v>
+        <v>0.003994095821192009</v>
       </c>
       <c r="T3">
-        <v>0.0003673438853070804</v>
+        <v>0.003994095821192009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H4">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N4">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q4">
-        <v>10.34773669521524</v>
+        <v>155.5605114774882</v>
       </c>
       <c r="R4">
-        <v>10.34773669521524</v>
+        <v>1400.044603297394</v>
       </c>
       <c r="S4">
-        <v>0.0004764840681058667</v>
+        <v>0.005716123141719686</v>
       </c>
       <c r="T4">
-        <v>0.0004764840681058667</v>
+        <v>0.005716123141719686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H5">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I5">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J5">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N5">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q5">
-        <v>12.93023798438595</v>
+        <v>176.1604880461095</v>
       </c>
       <c r="R5">
-        <v>12.93023798438595</v>
+        <v>1585.444392414986</v>
       </c>
       <c r="S5">
-        <v>0.0005954009633068906</v>
+        <v>0.006473076186322011</v>
       </c>
       <c r="T5">
-        <v>0.0005954009633068906</v>
+        <v>0.006473076186322011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H6">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I6">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J6">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N6">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q6">
-        <v>2.462771797697487</v>
+        <v>35.02583396334888</v>
       </c>
       <c r="R6">
-        <v>2.462771797697487</v>
+        <v>315.23250567014</v>
       </c>
       <c r="S6">
-        <v>0.0001134036900577405</v>
+        <v>0.001287036010452456</v>
       </c>
       <c r="T6">
-        <v>0.0001134036900577405</v>
+        <v>0.001287036010452456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H7">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I7">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J7">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N7">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q7">
-        <v>8.888637023942573</v>
+        <v>135.3473879933902</v>
       </c>
       <c r="R7">
-        <v>8.888637023942573</v>
+        <v>1218.126491940512</v>
       </c>
       <c r="S7">
-        <v>0.000409296646583882</v>
+        <v>0.004973385143390267</v>
       </c>
       <c r="T7">
-        <v>0.000409296646583882</v>
+        <v>0.004973385143390265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H8">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I8">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J8">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N8">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q8">
-        <v>941.8281853651844</v>
+        <v>1250.940205549101</v>
       </c>
       <c r="R8">
-        <v>941.8281853651844</v>
+        <v>11258.46184994191</v>
       </c>
       <c r="S8">
-        <v>0.04336852960581005</v>
+        <v>0.04596621719697533</v>
       </c>
       <c r="T8">
-        <v>0.04336852960581005</v>
+        <v>0.04596621719697533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H9">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I9">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J9">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q9">
-        <v>315.4209677884111</v>
+        <v>318.5468901330916</v>
       </c>
       <c r="R9">
-        <v>315.4209677884111</v>
+        <v>2866.922011197824</v>
       </c>
       <c r="S9">
-        <v>0.01452424528420854</v>
+        <v>0.01170511226222155</v>
       </c>
       <c r="T9">
-        <v>0.01452424528420854</v>
+        <v>0.01170511226222155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H10">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I10">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J10">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N10">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q10">
-        <v>409.1345246486802</v>
+        <v>455.8862210444372</v>
       </c>
       <c r="R10">
-        <v>409.1345246486802</v>
+        <v>4102.975989399935</v>
       </c>
       <c r="S10">
-        <v>0.01883949006909941</v>
+        <v>0.0167516920158774</v>
       </c>
       <c r="T10">
-        <v>0.01883949006909941</v>
+        <v>0.0167516920158774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H11">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I11">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J11">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N11">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q11">
-        <v>511.2428859715985</v>
+        <v>516.2565899913906</v>
       </c>
       <c r="R11">
-        <v>511.2428859715985</v>
+        <v>4646.309309922515</v>
       </c>
       <c r="S11">
-        <v>0.0235412919049796</v>
+        <v>0.01897002146037639</v>
       </c>
       <c r="T11">
-        <v>0.0235412919049796</v>
+        <v>0.01897002146037639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H12">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I12">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J12">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N12">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q12">
-        <v>97.37443060713457</v>
+        <v>102.6468409805389</v>
       </c>
       <c r="R12">
-        <v>97.37443060713457</v>
+        <v>923.8215688248499</v>
       </c>
       <c r="S12">
-        <v>0.004483817688039344</v>
+        <v>0.00377179258142378</v>
       </c>
       <c r="T12">
-        <v>0.004483817688039344</v>
+        <v>0.00377179258142378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H13">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I13">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J13">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N13">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O13">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P13">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q13">
-        <v>351.4438365296806</v>
+        <v>396.6495652045422</v>
       </c>
       <c r="R13">
-        <v>351.4438365296806</v>
+        <v>3569.84608684088</v>
       </c>
       <c r="S13">
-        <v>0.01618299671442424</v>
+        <v>0.0145750212395441</v>
       </c>
       <c r="T13">
-        <v>0.01618299671442424</v>
+        <v>0.0145750212395441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H14">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I14">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J14">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N14">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O14">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P14">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q14">
-        <v>1186.631416162461</v>
+        <v>1754.888226667739</v>
       </c>
       <c r="R14">
-        <v>1186.631416162461</v>
+        <v>15793.99404000966</v>
       </c>
       <c r="S14">
-        <v>0.05464102742165435</v>
+        <v>0.06448395616800563</v>
       </c>
       <c r="T14">
-        <v>0.05464102742165435</v>
+        <v>0.06448395616800563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H15">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I15">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J15">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N15">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O15">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P15">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q15">
-        <v>397.4062737875801</v>
+        <v>446.8752260551133</v>
       </c>
       <c r="R15">
-        <v>397.4062737875801</v>
+        <v>4021.877034496019</v>
       </c>
       <c r="S15">
-        <v>0.01829943722018539</v>
+        <v>0.01642057998430087</v>
       </c>
       <c r="T15">
-        <v>0.01829943722018539</v>
+        <v>0.01642057998430087</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H16">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I16">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J16">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N16">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O16">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P16">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q16">
-        <v>515.4781816139578</v>
+        <v>639.5424485215551</v>
       </c>
       <c r="R16">
-        <v>515.4781816139578</v>
+        <v>5755.882036693996</v>
       </c>
       <c r="S16">
-        <v>0.02373631531509744</v>
+        <v>0.02350020166033694</v>
       </c>
       <c r="T16">
-        <v>0.02373631531509744</v>
+        <v>0.02350020166033694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H17">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I17">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J17">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N17">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O17">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P17">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q17">
-        <v>644.1269004369799</v>
+        <v>724.2333468032137</v>
       </c>
       <c r="R17">
-        <v>644.1269004369799</v>
+        <v>6518.100121228924</v>
       </c>
       <c r="S17">
-        <v>0.02966022570312904</v>
+        <v>0.0266121971080433</v>
       </c>
       <c r="T17">
-        <v>0.02966022570312904</v>
+        <v>0.0266121971080433</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H18">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I18">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J18">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N18">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O18">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P18">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q18">
-        <v>122.6843285057932</v>
+        <v>143.9986755100844</v>
       </c>
       <c r="R18">
-        <v>122.6843285057932</v>
+        <v>1295.98807959076</v>
       </c>
       <c r="S18">
-        <v>0.005649267048542824</v>
+        <v>0.005291279603302754</v>
       </c>
       <c r="T18">
-        <v>0.005649267048542824</v>
+        <v>0.005291279603302754</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.8260300553878</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H19">
-        <v>17.8260300553878</v>
+        <v>59.944804</v>
       </c>
       <c r="I19">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J19">
-        <v>0.1523756097526515</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N19">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O19">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P19">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q19">
-        <v>442.792330833763</v>
+        <v>556.4419857980231</v>
       </c>
       <c r="R19">
-        <v>442.792330833763</v>
+        <v>5007.977872182208</v>
       </c>
       <c r="S19">
-        <v>0.02038933704404251</v>
+        <v>0.0204466473003647</v>
       </c>
       <c r="T19">
-        <v>0.02038933704404251</v>
+        <v>0.0204466473003647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H20">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I20">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J20">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N20">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O20">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P20">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q20">
-        <v>1545.862394782175</v>
+        <v>2102.294231707985</v>
       </c>
       <c r="R20">
-        <v>1545.862394782175</v>
+        <v>18920.64808537187</v>
       </c>
       <c r="S20">
-        <v>0.07118260004994904</v>
+        <v>0.07724950628173298</v>
       </c>
       <c r="T20">
-        <v>0.07118260004994904</v>
+        <v>0.07724950628173298</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H21">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I21">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J21">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N21">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O21">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P21">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q21">
-        <v>517.7137616038146</v>
+        <v>535.3407674360899</v>
       </c>
       <c r="R21">
-        <v>517.7137616038146</v>
+        <v>4818.06690692481</v>
       </c>
       <c r="S21">
-        <v>0.02383925746365787</v>
+        <v>0.0196712759580393</v>
       </c>
       <c r="T21">
-        <v>0.02383925746365787</v>
+        <v>0.0196712759580393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H22">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I22">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J22">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N22">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O22">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P22">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q22">
-        <v>671.529782065551</v>
+        <v>766.1493079888486</v>
       </c>
       <c r="R22">
-        <v>671.529782065551</v>
+        <v>6895.343771899638</v>
       </c>
       <c r="S22">
-        <v>0.03092205105690351</v>
+        <v>0.02815241315300858</v>
       </c>
       <c r="T22">
-        <v>0.03092205105690351</v>
+        <v>0.02815241315300858</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H23">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I23">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J23">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N23">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O23">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P23">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q23">
-        <v>839.1245497892703</v>
+        <v>867.6060185816247</v>
       </c>
       <c r="R23">
-        <v>839.1245497892703</v>
+        <v>7808.454167234622</v>
       </c>
       <c r="S23">
-        <v>0.03863931707075375</v>
+        <v>0.03188047399437479</v>
       </c>
       <c r="T23">
-        <v>0.03863931707075375</v>
+        <v>0.03188047399437479</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H24">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I24">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J24">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N24">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O24">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P24">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q24">
-        <v>159.8247672217733</v>
+        <v>172.5053369770866</v>
       </c>
       <c r="R24">
-        <v>159.8247672217733</v>
+        <v>1552.54803279378</v>
       </c>
       <c r="S24">
-        <v>0.007359479421728719</v>
+        <v>0.006338766434999634</v>
       </c>
       <c r="T24">
-        <v>0.007359479421728719</v>
+        <v>0.006338766434999634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.2225349300107</v>
+        <v>23.937254</v>
       </c>
       <c r="H25">
-        <v>23.2225349300107</v>
+        <v>71.811762</v>
       </c>
       <c r="I25">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J25">
-        <v>0.1985045413346606</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N25">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O25">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P25">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q25">
-        <v>576.8396181077917</v>
+        <v>666.5978831282026</v>
       </c>
       <c r="R25">
-        <v>576.8396181077917</v>
+        <v>5999.380948153824</v>
       </c>
       <c r="S25">
-        <v>0.0265618362716677</v>
+        <v>0.02449436267456529</v>
       </c>
       <c r="T25">
-        <v>0.0265618362716677</v>
+        <v>0.02449436267456529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H26">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I26">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J26">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N26">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O26">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P26">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q26">
-        <v>3718.961098754304</v>
+        <v>5134.294984766448</v>
       </c>
       <c r="R26">
-        <v>3718.961098754304</v>
+        <v>46208.65486289803</v>
       </c>
       <c r="S26">
-        <v>0.1712476617501577</v>
+        <v>0.1886613903496063</v>
       </c>
       <c r="T26">
-        <v>0.1712476617501577</v>
+        <v>0.1886613903496063</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H27">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I27">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J27">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N27">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O27">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P27">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q27">
-        <v>1245.4907669616</v>
+        <v>1307.427559821192</v>
       </c>
       <c r="R27">
-        <v>1245.4907669616</v>
+        <v>11766.84803839072</v>
       </c>
       <c r="S27">
-        <v>0.05735133439417444</v>
+        <v>0.0480418639655702</v>
       </c>
       <c r="T27">
-        <v>0.05735133439417444</v>
+        <v>0.0480418639655702</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H28">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I28">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J28">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N28">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O28">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P28">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q28">
-        <v>1615.533921121513</v>
+        <v>1871.116083686151</v>
       </c>
       <c r="R28">
-        <v>1615.533921121513</v>
+        <v>16840.04475317536</v>
       </c>
       <c r="S28">
-        <v>0.0743907771884979</v>
+        <v>0.06875478773641154</v>
       </c>
       <c r="T28">
-        <v>0.0743907771884979</v>
+        <v>0.06875478773641154</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H29">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I29">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J29">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N29">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O29">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P29">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q29">
-        <v>2018.725320060421</v>
+        <v>2118.897137598944</v>
       </c>
       <c r="R29">
-        <v>2018.725320060421</v>
+        <v>19070.0742383905</v>
       </c>
       <c r="S29">
-        <v>0.09295660309326209</v>
+        <v>0.0778595856243741</v>
       </c>
       <c r="T29">
-        <v>0.09295660309326209</v>
+        <v>0.0778595856243741</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H30">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I30">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J30">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N30">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O30">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P30">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q30">
-        <v>384.4987069492627</v>
+        <v>421.2984429716722</v>
       </c>
       <c r="R30">
-        <v>384.4987069492627</v>
+        <v>3791.68598674505</v>
       </c>
       <c r="S30">
-        <v>0.01770508019916516</v>
+        <v>0.01548075251597091</v>
       </c>
       <c r="T30">
-        <v>0.01770508019916516</v>
+        <v>0.01548075251597091</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.8676531046233</v>
+        <v>58.46038166666667</v>
       </c>
       <c r="H31">
-        <v>55.8676531046233</v>
+        <v>175.381145</v>
       </c>
       <c r="I31">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="J31">
-        <v>0.477552639640795</v>
+        <v>0.4586193517468508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N31">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O31">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P31">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q31">
-        <v>1387.73289731616</v>
+        <v>1627.988183852116</v>
       </c>
       <c r="R31">
-        <v>1387.73289731616</v>
+        <v>14651.89365466904</v>
       </c>
       <c r="S31">
-        <v>0.06390118301553774</v>
+        <v>0.05982097155491776</v>
       </c>
       <c r="T31">
-        <v>0.06390118301553774</v>
+        <v>0.05982097155491774</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H32">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I32">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J32">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N32">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O32">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P32">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q32">
-        <v>370.4381097263281</v>
+        <v>525.8402098858984</v>
       </c>
       <c r="R32">
-        <v>370.4381097263281</v>
+        <v>4732.561888973086</v>
       </c>
       <c r="S32">
-        <v>0.01705762938338631</v>
+        <v>0.01932217478605101</v>
       </c>
       <c r="T32">
-        <v>0.01705762938338631</v>
+        <v>0.01932217478605101</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H33">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I33">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J33">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N33">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O33">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P33">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q33">
-        <v>124.0607882533086</v>
+        <v>133.9030937074716</v>
       </c>
       <c r="R33">
-        <v>124.0607882533086</v>
+        <v>1205.127843367245</v>
       </c>
       <c r="S33">
-        <v>0.005712649134828743</v>
+        <v>0.004920314065693358</v>
       </c>
       <c r="T33">
-        <v>0.005712649134828743</v>
+        <v>0.004920314065693357</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H34">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I34">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J34">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N34">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O34">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P34">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q34">
-        <v>160.9200300964357</v>
+        <v>191.6345042670279</v>
       </c>
       <c r="R34">
-        <v>160.9200300964357</v>
+        <v>1724.710538403251</v>
       </c>
       <c r="S34">
-        <v>0.007409913185703962</v>
+        <v>0.007041674099607591</v>
       </c>
       <c r="T34">
-        <v>0.007409913185703962</v>
+        <v>0.007041674099607591</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H35">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I35">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J35">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N35">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O35">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P35">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q35">
-        <v>201.0811008134355</v>
+        <v>217.0115505376132</v>
       </c>
       <c r="R35">
-        <v>201.0811008134355</v>
+        <v>1953.103954838519</v>
       </c>
       <c r="S35">
-        <v>0.009259217136738194</v>
+        <v>0.007974162171792774</v>
       </c>
       <c r="T35">
-        <v>0.009259217136738194</v>
+        <v>0.007974162171792774</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H36">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I36">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J36">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N36">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O36">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P36">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q36">
-        <v>38.29912989469326</v>
+        <v>43.14821457164555</v>
       </c>
       <c r="R36">
-        <v>38.29912989469326</v>
+        <v>388.33393114481</v>
       </c>
       <c r="S36">
-        <v>0.001763566831534928</v>
+        <v>0.001585495608714054</v>
       </c>
       <c r="T36">
-        <v>0.001763566831534928</v>
+        <v>0.001585495608714054</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.5648626757228</v>
+        <v>5.987349666666667</v>
       </c>
       <c r="H37">
-        <v>5.5648626757228</v>
+        <v>17.962049</v>
       </c>
       <c r="I37">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="J37">
-        <v>0.04756804183367494</v>
+        <v>0.04697051823002506</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N37">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O37">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P37">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q37">
-        <v>138.2292359710433</v>
+        <v>166.7340210931609</v>
       </c>
       <c r="R37">
-        <v>138.2292359710433</v>
+        <v>1500.606189838448</v>
       </c>
       <c r="S37">
-        <v>0.006365066161482808</v>
+        <v>0.006126697498166288</v>
       </c>
       <c r="T37">
-        <v>0.006365066161482808</v>
+        <v>0.006126697498166286</v>
       </c>
     </row>
   </sheetData>
